--- a/data/trans_dic/P17_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8474699907245618</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8174563052124447</v>
+        <v>0.8174563052124446</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7532211277685922</v>
@@ -697,7 +697,7 @@
         <v>0.8155276270072818</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7695082793522694</v>
+        <v>0.7695082793522693</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6127723197052997</v>
+        <v>0.6068965181438566</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6648307787033816</v>
+        <v>0.6675198796466901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7549935698970552</v>
+        <v>0.7542037398809665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6600728208421471</v>
+        <v>0.6537882967001656</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7929415927071192</v>
+        <v>0.7918446922693693</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7821832964821055</v>
+        <v>0.7843228753042903</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8251304432339754</v>
+        <v>0.8250762947338838</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7864949258090068</v>
+        <v>0.786638398174978</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7321126538182469</v>
+        <v>0.7301319609672492</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.735915639364746</v>
+        <v>0.7348271396056061</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7986994843277875</v>
+        <v>0.7985669057703676</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7395232593232608</v>
+        <v>0.7388284573316771</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6909847418522502</v>
+        <v>0.6852408241237675</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7245523637215014</v>
+        <v>0.7260217614229981</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8048063460546879</v>
+        <v>0.8033236944377943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7578426167436911</v>
+        <v>0.7549343792701692</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8449270026521764</v>
+        <v>0.8447128235361658</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8313526130540678</v>
+        <v>0.8330205867017029</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8670872175405283</v>
+        <v>0.8665025820666524</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8455402481475297</v>
+        <v>0.8491277615471637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7752607515061137</v>
+        <v>0.7770339765110164</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7728602580444021</v>
+        <v>0.7732073841540266</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8307950917724148</v>
+        <v>0.8304854557492913</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7970343497893024</v>
+        <v>0.7950587153535994</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6142345053823416</v>
+        <v>0.6112298307646369</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6829209572365335</v>
+        <v>0.6882840928330884</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6959072682770615</v>
+        <v>0.6968180095506796</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6457009862595694</v>
+        <v>0.6466247634536829</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7290990048349636</v>
+        <v>0.7272017182050672</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8031912997976886</v>
+        <v>0.8001918985455578</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7685981334474249</v>
+        <v>0.7688541872312417</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7927684732890308</v>
+        <v>0.7914050153429806</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6779765565287987</v>
+        <v>0.6777216394604773</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7525709114999127</v>
+        <v>0.7553521801663894</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7419122806643194</v>
+        <v>0.7433330047006756</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7315522855503209</v>
+        <v>0.7331555518921271</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6738291153531805</v>
+        <v>0.6706808573765025</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7442168900223859</v>
+        <v>0.7471548533148288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7540897604334881</v>
+        <v>0.7548971738799234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7197833348699675</v>
+        <v>0.7181687405547925</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7785899463970115</v>
+        <v>0.7765016218242949</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8498625420762509</v>
+        <v>0.8465153697172143</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.821437065306562</v>
+        <v>0.8206364141427609</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8376710176145783</v>
+        <v>0.8350930645834967</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7172312261152745</v>
+        <v>0.7181772569294561</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7916681748926657</v>
+        <v>0.7931228686859473</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7826365109039204</v>
+        <v>0.7808439862280205</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7753601024486768</v>
+        <v>0.7755790683693221</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.7497532486945895</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7210694525890087</v>
+        <v>0.7210694525890085</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7508202976237122</v>
@@ -969,7 +969,7 @@
         <v>0.7814677722371254</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.745716984551181</v>
+        <v>0.7457169845511811</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5959872853298372</v>
+        <v>0.594870122800611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6958174699012327</v>
+        <v>0.6970400157150053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7172215352931945</v>
+        <v>0.7173571782666252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6919541118065677</v>
+        <v>0.6892324223457933</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7226030647131727</v>
+        <v>0.7232005646786311</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8292420952773853</v>
+        <v>0.8254069543748468</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7876499081950858</v>
+        <v>0.7875098992703864</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.74426220784436</v>
+        <v>0.7458775567374878</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6632645631634031</v>
+        <v>0.664794287863842</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7709416163158448</v>
+        <v>0.7706802137560249</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7593688315429095</v>
+        <v>0.7612822140135487</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7242162087964703</v>
+        <v>0.724860891673026</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6521148518755618</v>
+        <v>0.6520182940170449</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7540578765520882</v>
+        <v>0.7598787431016505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7790884679152277</v>
+        <v>0.7808492851995003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7514850112766158</v>
+        <v>0.750012392893913</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7762788014920822</v>
+        <v>0.7782786594986774</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8766451188479216</v>
+        <v>0.8762092056073714</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8413040504060347</v>
+        <v>0.8414806519615371</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7917007787141276</v>
+        <v>0.792310779546391</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7029541615316229</v>
+        <v>0.7047550204043365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8112405126304627</v>
+        <v>0.8115049302622828</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8032142951772129</v>
+        <v>0.8020852241627713</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7639349871113007</v>
+        <v>0.7643265410155835</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.7594000643510913</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.675390269892457</v>
+        <v>0.6753902698924572</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5933937967294104</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4710296442831165</v>
+        <v>0.4756824784657961</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6556107803139051</v>
+        <v>0.6563083927417067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6288077771545167</v>
+        <v>0.632234088486306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5777771389000417</v>
+        <v>0.5801659173449587</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6298312128846916</v>
+        <v>0.6363730844401135</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7268117920259809</v>
+        <v>0.7287002754506667</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7188826883227425</v>
+        <v>0.7190833717856185</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6491610475232852</v>
+        <v>0.6481387517695265</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5571986983231646</v>
+        <v>0.5573318698983736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7068571074652605</v>
+        <v>0.7040146240560303</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6841400642011053</v>
+        <v>0.6859534039461399</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6252341927704135</v>
+        <v>0.6227317986987247</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5765251819031479</v>
+        <v>0.5715766156589732</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7442836635895477</v>
+        <v>0.7434949615294666</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7148780817101361</v>
+        <v>0.7173087156282874</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6507902315618298</v>
+        <v>0.647499751417099</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7286878155612601</v>
+        <v>0.7346946611662419</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8132143829117563</v>
+        <v>0.8127039128793427</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7954703773063876</v>
+        <v>0.799230789385124</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7027155239327563</v>
+        <v>0.7035381998306481</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.627550278897415</v>
+        <v>0.6240182098795273</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.765309078341796</v>
+        <v>0.764079982424022</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7437773182428173</v>
+        <v>0.7446049122099628</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6670783633282102</v>
+        <v>0.6688541282654097</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7421385921390896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.6805186276007421</v>
+        <v>0.6805186276007422</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7636418149926977</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6052703498244366</v>
+        <v>0.6042379870802861</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.697191336828635</v>
+        <v>0.6939762457191879</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7271810175082596</v>
+        <v>0.7275729044846051</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6630223833473984</v>
+        <v>0.6641459782008207</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7486614335281457</v>
+        <v>0.7491877156448928</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8049429261247707</v>
+        <v>0.8080804257624602</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7999372753308578</v>
+        <v>0.7997300674553557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7556217895027025</v>
+        <v>0.7542995651403415</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6823474430078833</v>
+        <v>0.6823077514795899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7567119499169083</v>
+        <v>0.7571464537764325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7676189484068282</v>
+        <v>0.7690974353973117</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7148998636932347</v>
+        <v>0.7149073390495924</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6396238763411279</v>
+        <v>0.6384509385946998</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7285916284905406</v>
+        <v>0.7263770001041496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7566862493041169</v>
+        <v>0.758048497359154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6971235258060939</v>
+        <v>0.6990850188410882</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7778367652240771</v>
+        <v>0.777815031388008</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8334034631321442</v>
+        <v>0.8347059014025081</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8266900324718401</v>
+        <v>0.8263554497305067</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7814869605319977</v>
+        <v>0.781329846284017</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7055534488987945</v>
+        <v>0.7055388758845215</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7778103287829833</v>
+        <v>0.7781367139751698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7886708903080513</v>
+        <v>0.788685560219971</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7380825046843772</v>
+        <v>0.7355153894193062</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>356298</v>
+        <v>352882</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>693348</v>
+        <v>696152</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>850776</v>
+        <v>849886</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>328236</v>
+        <v>325111</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>731356</v>
+        <v>730344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>875161</v>
+        <v>877555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1037164</v>
+        <v>1037096</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>490443</v>
+        <v>490532</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1100941</v>
+        <v>1097962</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1590876</v>
+        <v>1588523</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1903968</v>
+        <v>1903652</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>828897</v>
+        <v>828118</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>401775</v>
+        <v>398435</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>755631</v>
+        <v>757164</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>906908</v>
+        <v>905237</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>376855</v>
+        <v>375408</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>779304</v>
+        <v>779107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>930175</v>
+        <v>932042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1089903</v>
+        <v>1089168</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>527262</v>
+        <v>529499</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1165826</v>
+        <v>1168493</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1670741</v>
+        <v>1671492</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1980478</v>
+        <v>1979740</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>893358</v>
+        <v>891144</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>659050</v>
+        <v>655826</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>666540</v>
+        <v>671774</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>630953</v>
+        <v>631779</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>618643</v>
+        <v>619528</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>770338</v>
+        <v>768334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>877197</v>
+        <v>873922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>768853</v>
+        <v>769109</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>884610</v>
+        <v>883088</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1443767</v>
+        <v>1443224</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1556433</v>
+        <v>1562185</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1414823</v>
+        <v>1417532</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1517198</v>
+        <v>1520524</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>722993</v>
+        <v>719615</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>726365</v>
+        <v>729233</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>683705</v>
+        <v>684437</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>689621</v>
+        <v>688074</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>822629</v>
+        <v>820422</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>928169</v>
+        <v>924513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>821709</v>
+        <v>820908</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>934714</v>
+        <v>931838</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1527361</v>
+        <v>1529376</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1637292</v>
+        <v>1640300</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1492484</v>
+        <v>1489066</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1608053</v>
+        <v>1608508</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>668456</v>
+        <v>667203</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>615878</v>
+        <v>616961</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>587610</v>
+        <v>587721</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>722397</v>
+        <v>719556</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>718224</v>
+        <v>718818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>726247</v>
+        <v>722888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>606552</v>
+        <v>606444</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>777389</v>
+        <v>779076</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1403159</v>
+        <v>1406395</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1357560</v>
+        <v>1357099</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1206913</v>
+        <v>1209955</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1512529</v>
+        <v>1513876</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>731408</v>
+        <v>731300</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>667428</v>
+        <v>672580</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>638296</v>
+        <v>639739</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>784547</v>
+        <v>783010</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>771575</v>
+        <v>773562</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>767762</v>
+        <v>767381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>647870</v>
+        <v>648006</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>826939</v>
+        <v>827576</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1487123</v>
+        <v>1490933</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1428522</v>
+        <v>1428988</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1276600</v>
+        <v>1274805</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1595482</v>
+        <v>1596300</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>209801</v>
+        <v>211873</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>329787</v>
+        <v>330138</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>317951</v>
+        <v>319683</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>560610</v>
+        <v>562927</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>214284</v>
+        <v>216510</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>329054</v>
+        <v>329909</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>349603</v>
+        <v>349701</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>586187</v>
+        <v>585263</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>437754</v>
+        <v>437859</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>675584</v>
+        <v>672868</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>678637</v>
+        <v>680436</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1171237</v>
+        <v>1166550</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>256790</v>
+        <v>254585</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>374392</v>
+        <v>373995</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>361472</v>
+        <v>362701</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>631453</v>
+        <v>628261</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>247918</v>
+        <v>249961</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>368171</v>
+        <v>367940</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>386849</v>
+        <v>388678</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>634546</v>
+        <v>635289</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>493025</v>
+        <v>490250</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>731450</v>
+        <v>730276</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>737794</v>
+        <v>738615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1249623</v>
+        <v>1252950</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1949829</v>
+        <v>1946503</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2375362</v>
+        <v>2364408</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2442205</v>
+        <v>2443522</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2300456</v>
+        <v>2304354</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2480360</v>
+        <v>2482104</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2849128</v>
+        <v>2860234</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2810735</v>
+        <v>2810007</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2785925</v>
+        <v>2781050</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4458784</v>
+        <v>4458525</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5256565</v>
+        <v>5259583</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5275193</v>
+        <v>5285353</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5116238</v>
+        <v>5116292</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2060496</v>
+        <v>2056717</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2482344</v>
+        <v>2474799</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2541297</v>
+        <v>2545873</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2418775</v>
+        <v>2425580</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2577020</v>
+        <v>2576948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2949866</v>
+        <v>2954476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2904736</v>
+        <v>2903560</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2881288</v>
+        <v>2880708</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4610423</v>
+        <v>4610328</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5403126</v>
+        <v>5405394</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5419865</v>
+        <v>5419965</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5282146</v>
+        <v>5263775</v>
       </c>
     </row>
     <row r="24">
